--- a/SwissToTo/liste-pieces.xlsx
+++ b/SwissToTo/liste-pieces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hessoit-my.sharepoint.com/personal/elise_zanou_hes-so_ch/Documents/Cco1/Compressor/SwissToTo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836DF7C4-989F-4AC4-950E-6C4E3AC5B97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{836DF7C4-989F-4AC4-950E-6C4E3AC5B97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C6D189E-7036-4289-B5FE-A0DBEADE5323}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{01C06451-46A9-4A2C-ACEB-15AD10499392}"/>
+    <workbookView xWindow="6667" yWindow="1040" windowWidth="13333" windowHeight="9273" activeTab="1" xr2:uid="{01C06451-46A9-4A2C-ACEB-15AD10499392}"/>
   </bookViews>
   <sheets>
     <sheet name="Listes_pieces" sheetId="1" r:id="rId1"/>
@@ -663,6 +663,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,6 +681,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,18 +691,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1220,16 +1220,16 @@
       <selection activeCell="D1" sqref="D1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.3515625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="53.44140625" customWidth="1"/>
+    <col min="3" max="6" width="8.52734375" customWidth="1"/>
+    <col min="7" max="7" width="11.52734375" customWidth="1"/>
+    <col min="8" max="8" width="53.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="1.5">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.7" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -1603,7 +1603,7 @@
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -1613,7 +1613,7 @@
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -1623,7 +1623,7 @@
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -1658,27 +1658,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20882D7-2635-4204-9273-7EAF44851DB7}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.64453125" customWidth="1"/>
+    <col min="2" max="2" width="12.3515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.52734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.234375" customWidth="1"/>
+    <col min="5" max="5" width="17.52734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.6">
+      <c r="A1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>47</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>48</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>79</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>50</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>51</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>52</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>53</v>
       </c>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>55</v>
       </c>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>56</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>57</v>
       </c>
@@ -1795,20 +1795,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
+    <row r="14" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.6">
+      <c r="A15" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>59</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
         <v>60</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
         <v>67</v>
       </c>
@@ -1839,20 +1839,20 @@
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="39" t="s">
+    <row r="20" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.6">
+      <c r="A21" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>90</v>
       </c>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="18" t="s">
         <v>94</v>
       </c>
@@ -1889,25 +1889,25 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="36" t="s">
+    <row r="27" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="1:5" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A28" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" s="18" t="s">
         <v>75</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" s="18" t="s">
         <v>77</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" s="18" t="s">
         <v>78</v>
       </c>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="18" t="s">
         <v>82</v>
       </c>
@@ -1956,33 +1956,33 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="18"/>
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="E33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="23"/>
       <c r="B34" s="17"/>
       <c r="C34" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A37" s="36" t="s">
+    <row r="36" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" spans="1:5" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A37" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="18" t="s">
         <v>80</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="18" t="s">
         <v>83</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="18" t="s">
         <v>84</v>
       </c>
@@ -2018,12 +2018,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" s="18"/>
       <c r="B41" s="17"/>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="23" t="s">
         <v>91</v>
       </c>
@@ -2035,20 +2035,20 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12"/>
       <c r="B43" s="21"/>
       <c r="C43" s="14"/>
     </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A45" s="36" t="s">
+    <row r="44" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" spans="1:5" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A45" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="40"/>
+      <c r="C45" s="41"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="18" t="s">
         <v>76</v>
       </c>
@@ -2060,21 +2060,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="18" t="s">
         <v>87</v>
       </c>
@@ -2085,12 +2085,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="18"/>
       <c r="B50" s="17"/>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="23" t="s">
         <v>93</v>
       </c>
@@ -2102,20 +2102,20 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="12"/>
       <c r="B52" s="21"/>
       <c r="C52" s="14"/>
     </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A54" s="36" t="s">
+    <row r="53" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" spans="1:3" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A54" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="40"/>
+      <c r="C54" s="41"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="18" t="s">
         <v>97</v>
       </c>
@@ -2127,25 +2127,25 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="18"/>
       <c r="B56" s="17"/>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="12"/>
       <c r="B57" s="21"/>
       <c r="C57" s="14"/>
     </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A59" s="36" t="s">
+    <row r="58" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" spans="1:3" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A59" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="40"/>
+      <c r="C59" s="41"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="18" t="s">
         <v>101</v>
       </c>
@@ -2157,12 +2157,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="18"/>
       <c r="B61" s="17"/>
       <c r="C61" s="11"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="23" t="s">
         <v>100</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="23" t="s">
         <v>99</v>
       </c>
@@ -2186,12 +2186,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="12"/>
       <c r="B64" s="21"/>
       <c r="C64" s="14"/>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="E65" s="42" t="s">
         <v>106</v>
       </c>
@@ -2203,27 +2203,27 @@
       <c r="K65" s="42"/>
       <c r="L65" s="42"/>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A67" s="36" t="s">
+    <row r="66" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" spans="1:13" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A67" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="38"/>
-      <c r="E67" s="36" t="s">
+      <c r="B67" s="40"/>
+      <c r="C67" s="41"/>
+      <c r="E67" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="38"/>
-      <c r="J67" s="36" t="s">
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="41"/>
+      <c r="J67" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="38"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="41"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A68" s="18" t="s">
         <v>103</v>
       </c>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="F68" s="32">
         <f>F69*(1+B69*(H68-H69))</f>
-        <v>32.295549000000001</v>
+        <v>29.914855200000002</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>62</v>
@@ -2252,7 +2252,7 @@
         <v>T = 20°C</v>
       </c>
       <c r="K68" s="34">
-        <v>32.4</v>
+        <v>30</v>
       </c>
       <c r="L68" s="17" t="s">
         <v>62</v>
@@ -2261,7 +2261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A69" s="18" t="s">
         <v>104</v>
       </c>
@@ -2272,34 +2272,34 @@
       <c r="C69" s="11"/>
       <c r="E69" s="18" t="str">
         <f t="shared" ref="E69:E70" si="0">_xlfn.CONCAT("T = ",H69,"°C")</f>
-        <v>T = 120°C</v>
+        <v>T = 100°C</v>
       </c>
       <c r="F69" s="33">
         <f>K68-B68</f>
-        <v>32.369999999999997</v>
+        <v>29.97</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>62</v>
       </c>
       <c r="H69" s="11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J69" s="18" t="str">
         <f t="shared" ref="J69:J70" si="1">_xlfn.CONCAT("T = ",M69,"°C")</f>
-        <v>T = 120°C</v>
+        <v>T = 100°C</v>
       </c>
       <c r="K69" s="30">
         <f>K68*(1+B70*(M69-M68))</f>
-        <v>32.438880000000005</v>
+        <v>30.028800000000004</v>
       </c>
       <c r="L69" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M69" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A70" s="18" t="s">
         <v>105</v>
       </c>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="F70" s="30">
         <f>F69*(1+B69*(H70-H69))</f>
-        <v>32.422115699999992</v>
+        <v>30.032037899999999</v>
       </c>
       <c r="G70" s="17" t="s">
         <v>62</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="K70" s="30">
         <f>K68*(1+B70*(M70-M68))</f>
-        <v>32.466096</v>
+        <v>30.061199999999999</v>
       </c>
       <c r="L70" s="17" t="s">
         <v>62</v>
@@ -2337,7 +2337,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="12"/>
       <c r="B71" s="21"/>
       <c r="C71" s="14"/>
@@ -2350,29 +2350,29 @@
       <c r="L71" s="21"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="E73" s="36" t="s">
+    <row r="72" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" spans="1:13" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="E73" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="38"/>
-      <c r="J73" s="36" t="s">
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="41"/>
+      <c r="J73" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="38"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="41"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
       <c r="E74" s="18" t="str">
         <f>_xlfn.CONCAT("T = ",H74,"°C")</f>
         <v>T = 20°C</v>
       </c>
       <c r="F74" s="32">
         <f>K68</f>
-        <v>32.4</v>
+        <v>30</v>
       </c>
       <c r="G74" s="17" t="s">
         <v>62</v>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="K74" s="30">
         <f>K68-F68</f>
-        <v>0.10445099999999741</v>
+        <v>8.5144799999998355E-2</v>
       </c>
       <c r="L74" s="30">
         <f>F74-K68</f>
@@ -2396,24 +2396,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
       <c r="E75" s="18" t="str">
         <f t="shared" ref="E75:E76" si="2">_xlfn.CONCAT("T = ",H75,"°C")</f>
-        <v>T = 120°C</v>
+        <v>T = 100°C</v>
       </c>
       <c r="F75" s="30">
         <f>F74*(1+B69*(H75-H74))</f>
-        <v>32.474519999999998</v>
+        <v>30.055200000000003</v>
       </c>
       <c r="G75" s="17" t="s">
         <v>62</v>
       </c>
       <c r="H75" s="11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J75" s="18" t="str">
         <f>_xlfn.CONCAT("T = ",M75,"&amp;20°C")</f>
-        <v>T = 120&amp;20°C</v>
+        <v>T = 100&amp;20°C</v>
       </c>
       <c r="K75" s="30">
         <f>K68-F69</f>
@@ -2423,17 +2423,17 @@
         <v>115</v>
       </c>
       <c r="M75" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
       <c r="E76" s="18" t="str">
         <f t="shared" si="2"/>
         <v>T = 190°C</v>
       </c>
       <c r="F76" s="30">
         <f>F74*(1+B69*(H76-H74))</f>
-        <v>32.526684000000003</v>
+        <v>30.117300000000004</v>
       </c>
       <c r="G76" s="17" t="s">
         <v>62</v>
@@ -2447,17 +2447,17 @@
       </c>
       <c r="K76" s="30">
         <f t="shared" ref="K76" si="4">K70-F70</f>
-        <v>4.3980300000008299E-2</v>
+        <v>2.9162100000000635E-2</v>
       </c>
       <c r="L76" s="30">
         <f t="shared" ref="L76" si="5">F76-K70</f>
-        <v>6.0588000000002751E-2</v>
+        <v>5.6100000000004258E-2</v>
       </c>
       <c r="M76" s="11">
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E77" s="12"/>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="M77" s="14"/>
     </row>
-    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="E79" s="42" t="s">
         <v>113</v>
       </c>
@@ -2483,93 +2483,105 @@
       <c r="K79" s="42"/>
       <c r="L79" s="42"/>
     </row>
-    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="44" t="s">
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E80" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="44"/>
-      <c r="L80" s="44"/>
-    </row>
-    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="45" t="s">
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+    </row>
+    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E81" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="43"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A86" s="29"/>
       <c r="B86" s="28"/>
       <c r="C86" s="29"/>
       <c r="D86" s="28"/>
       <c r="E86" s="29"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A87" s="29"/>
       <c r="B87" s="28"/>
       <c r="C87" s="29"/>
       <c r="D87" s="28"/>
       <c r="E87" s="29"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A88" s="29"/>
       <c r="B88" s="28"/>
       <c r="C88" s="29"/>
       <c r="D88" s="28"/>
       <c r="E88" s="29"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A89" s="29"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A90" s="29"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A91" s="29"/>
       <c r="C91" s="29"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A92" s="29"/>
       <c r="B92" s="26"/>
       <c r="C92" s="29"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A93" s="29"/>
       <c r="B93" s="26"/>
       <c r="C93" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="E65:L65"/>
+    <mergeCell ref="E79:L79"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A59:C59"/>
     <mergeCell ref="E83:L83"/>
     <mergeCell ref="E82:L82"/>
     <mergeCell ref="E80:L80"/>
@@ -2577,18 +2589,6 @@
     <mergeCell ref="J67:M67"/>
     <mergeCell ref="E73:H73"/>
     <mergeCell ref="J73:M73"/>
-    <mergeCell ref="E65:L65"/>
-    <mergeCell ref="E79:L79"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
